--- a/va_facility_data_2025-02-20/Oneonta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oneonta%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oneonta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oneonta%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R981e945a94114d2d8a8c531cee4412aa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra29eb4e544bf46e2aa829b4793ed30f1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R07b2d419adb14ebda47196eba27df735"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5ef8d25582294b69afb1b496e0eb3bd0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd1563f3afef2419db1023a0108f0b3fa"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re510a6b6971e4c61bac83dd9b0f5450e"/>
   </x:sheets>
 </x:workbook>
 </file>
